--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="14">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>357142.8571428572</v>
       </c>
     </row>
     <row r="15">
@@ -767,7 +767,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>427142.8571428572</v>
       </c>
     </row>
     <row r="34">
@@ -783,11 +783,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Tổng lương</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>427142.8571428572</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,33 +557,33 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Phụ cấp tại LONG XUYÊN</t>
+          <t>Lương cơ bản tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70000</v>
+        <v>535714.2857142857</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại LONG XUYÊN</t>
+          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>357142.8571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại LONG XUYÊN</t>
+          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -593,7 +593,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại LONG XUYÊN</t>
+          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -603,7 +603,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại LONG XUYÊN</t>
+          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -613,7 +613,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại LONG XUYÊN</t>
+          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -633,7 +633,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại LONG XUYÊN</t>
+          <t>Ứng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -643,7 +643,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Ứng lương tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -653,7 +653,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,27 +663,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,7 +693,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -703,7 +703,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -713,7 +713,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -723,7 +723,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -733,7 +733,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,7 +743,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -753,41 +753,31 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>535714.2857142857</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>427142.8571428572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>427142.8571428572</v>
+        <v>535714.2857142857</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -8,7 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Lương" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Phạt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +444,145 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>Ngày phát sinh</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>notion id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Mã thưởng phạt</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>id nhân sự</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Loại</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Lượng thưởng phạt</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Lí do</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Họ và tên</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>08-06-2024</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>92e7be0e-24c6-42ca-ba2c-65a7ecc68882</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>TP</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Phạt</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>ggggg</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Lê Hoàng Thanh</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
           <t>Danh mục lương</t>
         </is>
       </c>
@@ -643,17 +783,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Phạt tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>-4000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -663,27 +803,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -693,7 +833,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -703,7 +843,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -713,7 +853,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -723,7 +863,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -733,7 +873,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -743,7 +883,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -753,31 +893,41 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>535714.2857142857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-3464285.714285715</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Tổng lương tại SÓC TRĂNG</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
           <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>535714.2857142857</v>
+      <c r="B35" t="n">
+        <v>-3464285.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Đơn sale chính" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Phạt" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Đơn sale phụ" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Lương" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -415,14 +415,177 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Tiền tố</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Mã dịch vụ</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Ngày thực hiện</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Cơ sở</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Khách hàng</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Nguồn khách</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Tên dịch vụ</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Đơn giá gốc</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sale phụ</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale chính</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale chính</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>633</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>08-07-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Bạch Nhi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cá nhân</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Nâng mũi</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I2" t="n">
+        <v/>
+      </c>
+      <c r="J2" t="n">
+        <v/>
+      </c>
+      <c r="K2" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>15000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>700000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -433,7 +596,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,122 +607,166 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Ngày phát sinh</t>
+          <t>Tiền tố</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>notion id</t>
+          <t>Mã dịch vụ</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Tiền tố</t>
+          <t>Ngày thực hiện</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Mã thưởng phạt</t>
+          <t>Cơ sở</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>id nhân sự</t>
+          <t>Khách hàng</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>Cơ sở</t>
+          <t>Nguồn khách</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Loại</t>
+          <t>Tên dịch vụ</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Lượng thưởng phạt</t>
+          <t>Đơn giá gốc</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Lí do</t>
+          <t>Sale phụ</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>Họ và tên</t>
+          <t>Upsale</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Đơn giá</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Đã thanh toán</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Tỉ lệ chiết khấu sale phụ</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Chiết khấu sale phụ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>08-06-2024</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>92e7be0e-24c6-42ca-ba2c-65a7ecc68882</t>
-        </is>
+          <t>HD-LUXURY</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>625</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TP</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>8</v>
+          <t>08-04-2024</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>SÓC TRĂNG</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>d1ae645f-f3dd-46cd-a715-a8c150605da6</t>
+          <t>nguyễn thị mỹ chăm</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>LONG XUYÊN</t>
+          <t>Cá nhân</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phạt</t>
+          <t>Cắt mí</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4000000</v>
+        <v/>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>ggggg</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
           <t>Lê Hoàng Thanh</t>
         </is>
       </c>
+      <c r="J2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4000000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="K3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="L3" t="n">
+        <v>6000000</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -572,7 +779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -627,7 +834,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="6">
@@ -697,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="13">
@@ -707,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>535714.2857142857</v>
+        <v>1517857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -783,17 +990,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Phạt tại LONG XUYÊN</t>
+          <t>Tổng công tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-4000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tổng công tại SÓC TRĂNG</t>
+          <t>Lương công tác tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -803,27 +1010,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lương công tác tại SÓC TRĂNG</t>
+          <t>Lương cơ bản tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v/>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lương cơ bản tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v/>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chiết khấu sale chính tại SÓC TRĂNG</t>
+          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -833,7 +1040,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chiết khấu sale phụ tại SÓC TRĂNG</t>
+          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -843,7 +1050,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Đơn 1 bác sĩ tại SÓC TRĂNG</t>
+          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -853,7 +1060,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Đơn 2 bác sĩ tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -863,7 +1070,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 1 tại SÓC TRĂNG</t>
+          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -873,7 +1080,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Công phụ phẫu 2 tại SÓC TRĂNG</t>
+          <t>Ứng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -883,51 +1090,41 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ứng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại CẦN THƠ</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Tổng lương tại CẦN THƠ</t>
+          <t>Tổng lương tại LONG XUYÊN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1517857.142857143</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Tổng lương tại LONG XUYÊN</t>
+          <t>Tổng lương tại SÓC TRĂNG</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-3464285.714285715</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tổng lương tại SÓC TRĂNG</t>
+          <t>Tổng lương tại HỆ THỐNG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Tổng lương tại HỆ THỐNG</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>-3464285.714285715</v>
+        <v>2217857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1517857.142857143</v>
+        <v>1875000</v>
       </c>
     </row>
     <row r="14">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1517857.142857143</v>
+        <v>1875000</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2217857.142857143</v>
+        <v>2575000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="12">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>10.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1875000</v>
+        <v>3928571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-1050000</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="31">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1875000</v>
+        <v>2878571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2575000</v>
+        <v>3578571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1050000</v>
+        <v>-1000000</v>
       </c>
     </row>
     <row r="21">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2878571.428571429</v>
+        <v>2928571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3578571.428571429</v>
+        <v>3628571.428571429</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3928571.428571429</v>
+        <v>4285714.285714285</v>
       </c>
     </row>
     <row r="14">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2928571.428571429</v>
+        <v>3285714.285714285</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3628571.428571429</v>
+        <v>3985714.285714285</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4285714.285714285</v>
+        <v>4464285.714285715</v>
       </c>
     </row>
     <row r="14">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3285714.285714285</v>
+        <v>3464285.714285715</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3985714.285714285</v>
+        <v>4164285.714285715</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -894,7 +894,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4464285.714285715</v>
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3464285.714285715</v>
+        <v>4642857.142857143</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4164285.714285715</v>
+        <v>5342857.142857143</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -731,7 +731,7 @@
         <v>0.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="3">
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4642857.142857143</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="14">
@@ -1034,7 +1034,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="26">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4642857.142857143</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="33">
@@ -1114,7 +1114,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="34">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5342857.142857143</v>
+        <v>5940000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/Báo cáo cá nhân/NV-23 Lê Hoàng Thanh 8-2024.xlsx
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="B1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13">
@@ -914,7 +914,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5000000</v>
+        <v>5178571.428571429</v>
       </c>
     </row>
     <row r="14">
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5000000</v>
+        <v>5178571.428571429</v>
       </c>
     </row>
     <row r="33">
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5940000</v>
+        <v>6118571.428571429</v>
       </c>
     </row>
   </sheetData>
